--- a/MappingTheFederalReserve'sResponseFunctionWithDirectedAcyclicGraphs/SUR2005-12-31-2008-09-30.xlsx
+++ b/MappingTheFederalReserve'sResponseFunctionWithDirectedAcyclicGraphs/SUR2005-12-31-2008-09-30.xlsx
@@ -16,16 +16,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
+    <t>LF_FFR</t>
+  </si>
+  <si>
+    <t>LF_CA</t>
+  </si>
+  <si>
     <t>FFR_LF</t>
   </si>
   <si>
     <t>CA_LF</t>
-  </si>
-  <si>
-    <t>LF_FFR</t>
-  </si>
-  <si>
-    <t>LF_CA</t>
   </si>
   <si>
     <t>params</t>
@@ -414,16 +414,16 @@
         <v>4</v>
       </c>
       <c r="B2">
+        <v>0.6148321271736872</v>
+      </c>
+      <c r="C2">
+        <v>0.1382174556653222</v>
+      </c>
+      <c r="D2">
         <v>1.406551190655028</v>
       </c>
-      <c r="C2">
-        <v>0.9168477780017986</v>
-      </c>
-      <c r="D2">
-        <v>0.614832127173687</v>
-      </c>
       <c r="E2">
-        <v>0.1382174556653223</v>
+        <v>0.9168477780017947</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -434,13 +434,13 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1.486500189606943E-06</v>
+        <v>1.81484669514731E-08</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1.81484669514731E-08</v>
+        <v>1.486500189606943E-06</v>
       </c>
     </row>
   </sheetData>

--- a/MappingTheFederalReserve'sResponseFunctionWithDirectedAcyclicGraphs/SUR2005-12-31-2008-09-30.xlsx
+++ b/MappingTheFederalReserve'sResponseFunctionWithDirectedAcyclicGraphs/SUR2005-12-31-2008-09-30.xlsx
@@ -14,18 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>CA_LF</t>
+  </si>
   <si>
     <t>LF_FFR</t>
-  </si>
-  <si>
-    <t>LF_CA</t>
-  </si>
-  <si>
-    <t>FFR_LF</t>
-  </si>
-  <si>
-    <t>CA_LF</t>
   </si>
   <si>
     <t>params</t>
@@ -389,58 +383,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B2">
+        <v>0.8141847678834518</v>
+      </c>
+      <c r="C2">
+        <v>0.627195551619356</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2">
-        <v>0.6148321271736872</v>
-      </c>
-      <c r="C2">
-        <v>0.1382174556653222</v>
-      </c>
-      <c r="D2">
-        <v>1.406551190655028</v>
-      </c>
-      <c r="E2">
-        <v>0.9168477780017947</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="B3">
+        <v>3.086993074852273E-05</v>
+      </c>
+      <c r="C3">
         <v>0</v>
-      </c>
-      <c r="C3">
-        <v>1.81484669514731E-08</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>1.486500189606943E-06</v>
       </c>
     </row>
   </sheetData>

--- a/MappingTheFederalReserve'sResponseFunctionWithDirectedAcyclicGraphs/SUR2005-12-31-2008-09-30.xlsx
+++ b/MappingTheFederalReserve'sResponseFunctionWithDirectedAcyclicGraphs/SUR2005-12-31-2008-09-30.xlsx
@@ -16,10 +16,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>CA_LF</t>
+    <t>FFR_LF</t>
   </si>
   <si>
-    <t>LF_FFR</t>
+    <t>LF_CA</t>
   </si>
   <si>
     <t>params</t>
@@ -402,10 +402,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.8141847678834518</v>
+        <v>1.271001727713975</v>
       </c>
       <c r="C2">
-        <v>0.627195551619356</v>
+        <v>0.4195935936794408</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -413,10 +413,10 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>3.086993074852273E-05</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1.685781251703489E-05</v>
       </c>
     </row>
   </sheetData>

--- a/MappingTheFederalReserve'sResponseFunctionWithDirectedAcyclicGraphs/SUR2005-12-31-2008-09-30.xlsx
+++ b/MappingTheFederalReserve'sResponseFunctionWithDirectedAcyclicGraphs/SUR2005-12-31-2008-09-30.xlsx
@@ -402,10 +402,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>1.271001727713975</v>
+        <v>2.084235261164983</v>
       </c>
       <c r="C2">
-        <v>0.4195935936794408</v>
+        <v>0.242043235153337</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -416,7 +416,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1.685781251703489E-05</v>
+        <v>1.254008515649829E-05</v>
       </c>
     </row>
   </sheetData>

--- a/MappingTheFederalReserve'sResponseFunctionWithDirectedAcyclicGraphs/SUR2005-12-31-2008-09-30.xlsx
+++ b/MappingTheFederalReserve'sResponseFunctionWithDirectedAcyclicGraphs/SUR2005-12-31-2008-09-30.xlsx
@@ -14,12 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>FFR_A</t>
+  </si>
   <si>
     <t>FFR_LF</t>
   </si>
   <si>
-    <t>LF_CA</t>
+    <t>A_FFR</t>
+  </si>
+  <si>
+    <t>A_LF</t>
+  </si>
+  <si>
+    <t>LF_A</t>
+  </si>
+  <si>
+    <t>LF_FFR</t>
   </si>
   <si>
     <t>params</t>
@@ -383,40 +395,76 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>2.084235261164983</v>
+        <v>31.61408023314106</v>
       </c>
       <c r="C2">
-        <v>0.242043235153337</v>
+        <v>2.648915369657083</v>
+      </c>
+      <c r="D2">
+        <v>0.006278165067028139</v>
+      </c>
+      <c r="E2">
+        <v>-0.03195948140161898</v>
+      </c>
+      <c r="F2">
+        <v>-18.74862056136149</v>
+      </c>
+      <c r="G2">
+        <v>0.3085956916096013</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B3">
+        <v>0.003703943600201987</v>
+      </c>
+      <c r="C3">
         <v>0</v>
       </c>
-      <c r="C3">
-        <v>1.254008515649829E-05</v>
+      <c r="D3">
+        <v>0.003703943600202209</v>
+      </c>
+      <c r="E3">
+        <v>5.687406101628767E-11</v>
+      </c>
+      <c r="F3">
+        <v>5.687406101628767E-11</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/MappingTheFederalReserve'sResponseFunctionWithDirectedAcyclicGraphs/SUR2005-12-31-2008-09-30.xlsx
+++ b/MappingTheFederalReserve'sResponseFunctionWithDirectedAcyclicGraphs/SUR2005-12-31-2008-09-30.xlsx
@@ -22,16 +22,16 @@
     <t>FFR_LF</t>
   </si>
   <si>
+    <t>LF_A</t>
+  </si>
+  <si>
+    <t>LF_FFR</t>
+  </si>
+  <si>
     <t>A_FFR</t>
   </si>
   <si>
     <t>A_LF</t>
-  </si>
-  <si>
-    <t>LF_A</t>
-  </si>
-  <si>
-    <t>LF_FFR</t>
   </si>
   <si>
     <t>params</t>
@@ -426,22 +426,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>31.61408023314106</v>
+        <v>31.61408023314126</v>
       </c>
       <c r="C2">
-        <v>2.648915369657083</v>
+        <v>2.648915369657086</v>
       </c>
       <c r="D2">
-        <v>0.006278165067028139</v>
+        <v>-18.7486205613615</v>
       </c>
       <c r="E2">
-        <v>-0.03195948140161898</v>
+        <v>0.3085956916096014</v>
       </c>
       <c r="F2">
-        <v>-18.74862056136149</v>
+        <v>0.006278165067028148</v>
       </c>
       <c r="G2">
-        <v>0.3085956916096013</v>
+        <v>-0.03195948140161897</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -449,22 +449,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.003703943600201987</v>
+        <v>0.003703943600201542</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
+        <v>5.687406101628767E-11</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
         <v>0.003703943600202209</v>
       </c>
-      <c r="E3">
+      <c r="G3">
         <v>5.687406101628767E-11</v>
-      </c>
-      <c r="F3">
-        <v>5.687406101628767E-11</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/MappingTheFederalReserve'sResponseFunctionWithDirectedAcyclicGraphs/SUR2005-12-31-2008-09-30.xlsx
+++ b/MappingTheFederalReserve'sResponseFunctionWithDirectedAcyclicGraphs/SUR2005-12-31-2008-09-30.xlsx
@@ -16,22 +16,22 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
+    <t>LF_A</t>
+  </si>
+  <si>
+    <t>LF_FFR</t>
+  </si>
+  <si>
+    <t>FFR_A</t>
+  </si>
+  <si>
+    <t>FFR_LF</t>
+  </si>
+  <si>
     <t>A_FFR</t>
   </si>
   <si>
     <t>A_LF</t>
-  </si>
-  <si>
-    <t>FFR_A</t>
-  </si>
-  <si>
-    <t>FFR_LF</t>
-  </si>
-  <si>
-    <t>LF_A</t>
-  </si>
-  <si>
-    <t>LF_FFR</t>
   </si>
   <si>
     <t>params</t>
@@ -426,22 +426,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.00627816506702822</v>
+        <v>-18.7486205613612</v>
       </c>
       <c r="C2">
-        <v>-0.03195948140161915</v>
+        <v>0.3085956916096027</v>
       </c>
       <c r="D2">
-        <v>31.61408023314044</v>
+        <v>31.61408023313981</v>
       </c>
       <c r="E2">
-        <v>2.648915369657071</v>
+        <v>2.648915369657066</v>
       </c>
       <c r="F2">
-        <v>-18.74862056136134</v>
+        <v>0.006278165067028211</v>
       </c>
       <c r="G2">
-        <v>0.3085956916096025</v>
+        <v>-0.03195948140161918</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -449,22 +449,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.003703943600201764</v>
+        <v>5.687406101628767E-11</v>
       </c>
       <c r="C3">
-        <v>5.687406101628767E-11</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.003703943600202653</v>
+        <v>0.003703943600203319</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
+        <v>0.003703943600201987</v>
+      </c>
+      <c r="G3">
         <v>5.687406101628767E-11</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/MappingTheFederalReserve'sResponseFunctionWithDirectedAcyclicGraphs/SUR2005-12-31-2008-09-30.xlsx
+++ b/MappingTheFederalReserve'sResponseFunctionWithDirectedAcyclicGraphs/SUR2005-12-31-2008-09-30.xlsx
@@ -16,16 +16,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
+    <t>FFR_A</t>
+  </si>
+  <si>
+    <t>FFR_LF</t>
+  </si>
+  <si>
     <t>LF_A</t>
   </si>
   <si>
     <t>LF_FFR</t>
-  </si>
-  <si>
-    <t>FFR_A</t>
-  </si>
-  <si>
-    <t>FFR_LF</t>
   </si>
   <si>
     <t>A_FFR</t>
@@ -426,22 +426,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-18.7486205613612</v>
+        <v>16.67744507534299</v>
       </c>
       <c r="C2">
-        <v>0.3085956916096027</v>
+        <v>4.049661285073961</v>
       </c>
       <c r="D2">
-        <v>31.61408023313981</v>
+        <v>-9.705206550582979</v>
       </c>
       <c r="E2">
-        <v>2.648915369657066</v>
+        <v>0.1909481729148204</v>
       </c>
       <c r="F2">
-        <v>0.006278165067028211</v>
+        <v>0.003482784764221892</v>
       </c>
       <c r="G2">
-        <v>-0.03195948140161918</v>
+        <v>-0.04298382828175914</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -449,22 +449,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>5.687406101628767E-11</v>
+        <v>0.1314940620420444</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.003703943600203319</v>
+        <v>1.311694272088104E-06</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.003703943600201987</v>
+        <v>0.1314940620420459</v>
       </c>
       <c r="G3">
-        <v>5.687406101628767E-11</v>
+        <v>1.311694272088104E-06</v>
       </c>
     </row>
   </sheetData>
